--- a/SchedulingData/dynamic11/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>198.24</v>
+        <v>209.92</v>
       </c>
       <c r="D2" t="n">
-        <v>263.54</v>
+        <v>271.62</v>
       </c>
       <c r="E2" t="n">
-        <v>13.716</v>
+        <v>11.528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>266.46</v>
+        <v>232.14</v>
       </c>
       <c r="D3" t="n">
-        <v>324.86</v>
+        <v>290.9</v>
       </c>
       <c r="E3" t="n">
-        <v>10.624</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>235.86</v>
+        <v>215.4</v>
       </c>
       <c r="D4" t="n">
-        <v>310.24</v>
+        <v>282.56</v>
       </c>
       <c r="E4" t="n">
-        <v>12.176</v>
+        <v>11.924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221.6</v>
+        <v>245.72</v>
       </c>
       <c r="D5" t="n">
-        <v>290.5</v>
+        <v>291.74</v>
       </c>
       <c r="E5" t="n">
-        <v>10.62</v>
+        <v>11.516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>324.86</v>
+        <v>282.56</v>
       </c>
       <c r="D6" t="n">
-        <v>382.52</v>
+        <v>335.64</v>
       </c>
       <c r="E6" t="n">
-        <v>7.488</v>
+        <v>8.756</v>
       </c>
     </row>
     <row r="7">
@@ -561,245 +561,245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>382.52</v>
+        <v>291.74</v>
       </c>
       <c r="D7" t="n">
-        <v>427.48</v>
+        <v>333.86</v>
       </c>
       <c r="E7" t="n">
-        <v>5.112</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>208.26</v>
+        <v>335.64</v>
       </c>
       <c r="D8" t="n">
-        <v>252.64</v>
+        <v>400.6</v>
       </c>
       <c r="E8" t="n">
-        <v>13.436</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>252.64</v>
+        <v>211.78</v>
       </c>
       <c r="D9" t="n">
-        <v>295.34</v>
+        <v>256.74</v>
       </c>
       <c r="E9" t="n">
-        <v>11.276</v>
+        <v>12.516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>427.48</v>
+        <v>256.74</v>
       </c>
       <c r="D10" t="n">
-        <v>477.54</v>
+        <v>313.28</v>
       </c>
       <c r="E10" t="n">
-        <v>2.736</v>
+        <v>9.972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>263.54</v>
+        <v>333.86</v>
       </c>
       <c r="D11" t="n">
-        <v>325.34</v>
+        <v>392.96</v>
       </c>
       <c r="E11" t="n">
-        <v>11.636</v>
+        <v>5.624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>477.54</v>
+        <v>290.9</v>
       </c>
       <c r="D12" t="n">
-        <v>527.3</v>
+        <v>343.12</v>
       </c>
       <c r="E12" t="n">
-        <v>0.36</v>
+        <v>9.468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>527.3</v>
+        <v>239.18</v>
       </c>
       <c r="D13" t="n">
-        <v>627.88</v>
+        <v>274.34</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>12.236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>325.34</v>
+        <v>271.62</v>
       </c>
       <c r="D14" t="n">
-        <v>374.1</v>
+        <v>321.32</v>
       </c>
       <c r="E14" t="n">
-        <v>8.880000000000001</v>
+        <v>8.667999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>374.1</v>
+        <v>321.32</v>
       </c>
       <c r="D15" t="n">
-        <v>423.4</v>
+        <v>366.94</v>
       </c>
       <c r="E15" t="n">
-        <v>5.58</v>
+        <v>5.236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>295.34</v>
+        <v>274.34</v>
       </c>
       <c r="D16" t="n">
-        <v>347.36</v>
+        <v>321.56</v>
       </c>
       <c r="E16" t="n">
-        <v>8.683999999999999</v>
+        <v>9.644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>310.24</v>
+        <v>392.96</v>
       </c>
       <c r="D17" t="n">
-        <v>365.24</v>
+        <v>451.36</v>
       </c>
       <c r="E17" t="n">
-        <v>9.316000000000001</v>
+        <v>2.384</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>365.24</v>
+        <v>321.56</v>
       </c>
       <c r="D18" t="n">
-        <v>414.1</v>
+        <v>364.6</v>
       </c>
       <c r="E18" t="n">
-        <v>6.56</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>290.5</v>
+        <v>313.28</v>
       </c>
       <c r="D19" t="n">
-        <v>337.52</v>
+        <v>355.58</v>
       </c>
       <c r="E19" t="n">
-        <v>8.028</v>
+        <v>7.852</v>
       </c>
     </row>
     <row r="20">
@@ -808,169 +808,169 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>423.4</v>
+        <v>400.6</v>
       </c>
       <c r="D20" t="n">
-        <v>479.42</v>
+        <v>454.26</v>
       </c>
       <c r="E20" t="n">
-        <v>2.108</v>
+        <v>3.624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>337.52</v>
+        <v>451.36</v>
       </c>
       <c r="D21" t="n">
-        <v>390.92</v>
+        <v>513.59</v>
       </c>
       <c r="E21" t="n">
-        <v>4.308</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>390.92</v>
+        <v>513.59</v>
       </c>
       <c r="D22" t="n">
-        <v>457.54</v>
+        <v>572.89</v>
       </c>
       <c r="E22" t="n">
-        <v>1.716</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>457.54</v>
+        <v>366.94</v>
       </c>
       <c r="D23" t="n">
-        <v>560.41</v>
+        <v>424.54</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>3.076</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>627.88</v>
+        <v>355.58</v>
       </c>
       <c r="D24" t="n">
-        <v>689.92</v>
+        <v>394.96</v>
       </c>
       <c r="E24" t="n">
-        <v>27.456</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>229.92</v>
+        <v>343.12</v>
       </c>
       <c r="D25" t="n">
-        <v>268.72</v>
+        <v>409.52</v>
       </c>
       <c r="E25" t="n">
-        <v>12.268</v>
+        <v>5.448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>560.41</v>
+        <v>454.26</v>
       </c>
       <c r="D26" t="n">
-        <v>614.71</v>
+        <v>504.16</v>
       </c>
       <c r="E26" t="n">
-        <v>26.76</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>268.72</v>
+        <v>504.16</v>
       </c>
       <c r="D27" t="n">
-        <v>329.14</v>
+        <v>599.03</v>
       </c>
       <c r="E27" t="n">
-        <v>8.836</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>414.1</v>
+        <v>364.6</v>
       </c>
       <c r="D28" t="n">
-        <v>451.8</v>
+        <v>453.28</v>
       </c>
       <c r="E28" t="n">
-        <v>3.92</v>
+        <v>4.672</v>
       </c>
     </row>
     <row r="29">
@@ -979,117 +979,117 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>479.42</v>
+        <v>599.03</v>
       </c>
       <c r="D29" t="n">
-        <v>576.7</v>
+        <v>658.8099999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>576.7</v>
+        <v>453.28</v>
       </c>
       <c r="D30" t="n">
-        <v>644.6</v>
+        <v>493.68</v>
       </c>
       <c r="E30" t="n">
-        <v>27.84</v>
+        <v>2.252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>329.14</v>
+        <v>424.54</v>
       </c>
       <c r="D31" t="n">
-        <v>384.64</v>
+        <v>477.24</v>
       </c>
       <c r="E31" t="n">
-        <v>6.416</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>384.64</v>
+        <v>477.24</v>
       </c>
       <c r="D32" t="n">
-        <v>446.94</v>
+        <v>577.77</v>
       </c>
       <c r="E32" t="n">
-        <v>4.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>347.36</v>
+        <v>409.52</v>
       </c>
       <c r="D33" t="n">
-        <v>404.26</v>
+        <v>466.22</v>
       </c>
       <c r="E33" t="n">
-        <v>5.604</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>451.8</v>
+        <v>394.96</v>
       </c>
       <c r="D34" t="n">
-        <v>506.08</v>
+        <v>478.06</v>
       </c>
       <c r="E34" t="n">
-        <v>1.632</v>
+        <v>1.804</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>506.08</v>
+        <v>478.06</v>
       </c>
       <c r="D35" t="n">
-        <v>609.22</v>
+        <v>580.75</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,37 +1108,37 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>446.94</v>
+        <v>493.68</v>
       </c>
       <c r="D36" t="n">
-        <v>490.08</v>
+        <v>550.58</v>
       </c>
       <c r="E36" t="n">
-        <v>1.612</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>490.08</v>
+        <v>550.58</v>
       </c>
       <c r="D37" t="n">
-        <v>563.86</v>
+        <v>622.14</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1146,78 +1146,78 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>563.86</v>
+        <v>572.89</v>
       </c>
       <c r="D38" t="n">
-        <v>631.0599999999999</v>
+        <v>647.0700000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>26.92</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>631.0599999999999</v>
+        <v>647.0700000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>685.66</v>
+        <v>689.77</v>
       </c>
       <c r="E39" t="n">
-        <v>24.06</v>
+        <v>21.792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>404.26</v>
+        <v>466.22</v>
       </c>
       <c r="D40" t="n">
-        <v>490.86</v>
+        <v>562.8200000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>3.524</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>490.86</v>
+        <v>562.8200000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>534.5</v>
+        <v>644.14</v>
       </c>
       <c r="E41" t="n">
-        <v>1.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>534.5</v>
+        <v>577.77</v>
       </c>
       <c r="D42" t="n">
-        <v>623.4400000000001</v>
+        <v>631.71</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="43">
@@ -1245,36 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>685.66</v>
+        <v>580.75</v>
       </c>
       <c r="D43" t="n">
-        <v>729.9400000000001</v>
+        <v>647.95</v>
       </c>
       <c r="E43" t="n">
-        <v>21.252</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond5</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>609.22</v>
-      </c>
-      <c r="D44" t="n">
-        <v>669</v>
-      </c>
-      <c r="E44" t="n">
-        <v>27.192</v>
+        <v>26.92</v>
       </c>
     </row>
   </sheetData>
